--- a/results/mnist_training/results_naive_fine-tuning_mnist.xlsx
+++ b/results/mnist_training/results_naive_fine-tuning_mnist.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="naive_after_task1" sheetId="1" r:id="rId1"/>
-    <sheet name="naive_after_task2" sheetId="2" r:id="rId2"/>
+    <sheet name="fine-tuning_after_task1" sheetId="1" r:id="rId1"/>
+    <sheet name="fine-tuning_after_task2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8071422311663627</v>
+        <v>0.8110272212326527</v>
       </c>
       <c r="D3">
-        <v>0.2837800085544586</v>
+        <v>0.2873412668704987</v>
       </c>
       <c r="E3">
-        <v>50.76</v>
+        <v>50.88</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.0008297452783212066</v>
+        <v>0.0008335107350721956</v>
       </c>
       <c r="J3">
-        <v>94.98999999999999</v>
+        <v>94.83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.3342398976782958</v>
+        <v>0.3349384761850039</v>
       </c>
       <c r="D4">
-        <v>0.2566404044628143</v>
+        <v>0.2541528046131134</v>
       </c>
       <c r="E4">
-        <v>51.29000000000001</v>
+        <v>51.2</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.02037003085613251</v>
+        <v>0.02034667217731476</v>
       </c>
       <c r="J4">
-        <v>6.53</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.2718933261434237</v>
+        <v>0.2685774983962377</v>
       </c>
       <c r="D5">
-        <v>0.2687459886074066</v>
+        <v>0.2700080871582031</v>
       </c>
       <c r="E5">
-        <v>50.965</v>
+        <v>51.23</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0005537172063952312</v>
+        <v>0.0005489403447601944</v>
       </c>
       <c r="J5">
-        <v>96.54000000000001</v>
+        <v>96.56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2346423552930355</v>
+        <v>0.2330370715260506</v>
       </c>
       <c r="D6">
-        <v>0.2591616213321686</v>
+        <v>0.2670008540153503</v>
       </c>
       <c r="E6">
-        <v>51.795</v>
+        <v>51.86</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.02093131988048554</v>
+        <v>0.02101841456890106</v>
       </c>
       <c r="J6">
-        <v>6.04</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.2144376908739408</v>
+        <v>0.2125476098557313</v>
       </c>
       <c r="D7">
-        <v>0.2651714980602264</v>
+        <v>0.26612389087677</v>
       </c>
       <c r="E7">
-        <v>51.875</v>
+        <v>52.165</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.0004412380947498605</v>
+        <v>0.0004333921703509987</v>
       </c>
       <c r="J7">
-        <v>97.28</v>
+        <v>97.34999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.198637855326136</v>
+        <v>0.1962084027628104</v>
       </c>
       <c r="D8">
-        <v>0.2550289630889893</v>
+        <v>0.252347856760025</v>
       </c>
       <c r="E8">
-        <v>52.785</v>
+        <v>53.11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.01919123404026031</v>
+        <v>0.01851258618831635</v>
       </c>
       <c r="J8">
-        <v>4.65</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1879310272882382</v>
+        <v>0.1876430736482143</v>
       </c>
       <c r="D9">
-        <v>0.2330837100744247</v>
+        <v>0.235932782292366</v>
       </c>
       <c r="E9">
-        <v>52.905</v>
+        <v>53.1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.0004075179983861744</v>
+        <v>0.0004076692308299243</v>
       </c>
       <c r="J9">
-        <v>97.48</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1751793608317773</v>
+        <v>0.1757612370202939</v>
       </c>
       <c r="D10">
-        <v>0.2453473061323166</v>
+        <v>0.2473838776350021</v>
       </c>
       <c r="E10">
-        <v>52.52</v>
+        <v>52.785</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.01969929728507996</v>
+        <v>0.01974890704154968</v>
       </c>
       <c r="J10">
-        <v>6.11</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.1657433241357406</v>
+        <v>0.1663132996857166</v>
       </c>
       <c r="D11">
-        <v>0.2409010678529739</v>
+        <v>0.2501629590988159</v>
       </c>
       <c r="E11">
-        <v>53.58000000000001</v>
+        <v>53.415</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.0003504165832011495</v>
+        <v>0.0003427156316116452</v>
       </c>
       <c r="J11">
-        <v>97.87</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.161437630529205</v>
+        <v>0.1629860718548298</v>
       </c>
       <c r="D12">
-        <v>0.2313147485256195</v>
+        <v>0.2430786490440369</v>
       </c>
       <c r="E12">
-        <v>54.455</v>
+        <v>54.45999999999999</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.01977150950431824</v>
+        <v>0.02005958797931671</v>
       </c>
       <c r="J12">
-        <v>5.88</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1558626178776225</v>
+        <v>0.1568648664777477</v>
       </c>
       <c r="D13">
-        <v>0.273958683013916</v>
+        <v>0.2632972002029419</v>
       </c>
       <c r="E13">
-        <v>54.785</v>
+        <v>55.635</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0003230182051222073</v>
+        <v>0.0003169953546515899</v>
       </c>
       <c r="J13">
-        <v>98.06</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1505499848971764</v>
+        <v>0.1521535034229358</v>
       </c>
       <c r="D14">
-        <v>0.2532067000865936</v>
+        <v>0.2512507140636444</v>
       </c>
       <c r="E14">
-        <v>54.95</v>
+        <v>54.43</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.01994228203296661</v>
+        <v>0.01994118916988373</v>
       </c>
       <c r="J14">
-        <v>7.51</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.1441886092225711</v>
+        <v>0.1695625927547614</v>
       </c>
       <c r="D15">
-        <v>0.2708593308925629</v>
+        <v>0.2602722942829132</v>
       </c>
       <c r="E15">
-        <v>55.035</v>
+        <v>53.3</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.000303103973675752</v>
+        <v>0.0003042135088471696</v>
       </c>
       <c r="J15">
-        <v>98.18000000000001</v>
+        <v>98.17</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.143088811263442</v>
+        <v>0.168700698427856</v>
       </c>
       <c r="D16">
-        <v>0.262032151222229</v>
+        <v>0.2583146095275879</v>
       </c>
       <c r="E16">
-        <v>54.64</v>
+        <v>53.215</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.0183692284822464</v>
+        <v>0.01892098114490509</v>
       </c>
       <c r="J16">
-        <v>7.63</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.1386518328636885</v>
+        <v>0.1662639470646779</v>
       </c>
       <c r="D17">
-        <v>0.2545686364173889</v>
+        <v>0.2590171694755554</v>
       </c>
       <c r="E17">
-        <v>54.29499999999999</v>
+        <v>53.28</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.000284969043728779</v>
+        <v>0.0002888841264415532</v>
       </c>
       <c r="J17">
-        <v>98.28</v>
+        <v>98.26000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1512431972722212</v>
+        <v>0.1615504717330138</v>
       </c>
       <c r="D18">
-        <v>0.241038590669632</v>
+        <v>0.256449818611145</v>
       </c>
       <c r="E18">
-        <v>53.765</v>
+        <v>53.42</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.01967855718135834</v>
+        <v>0.01987126142978668</v>
       </c>
       <c r="J18">
-        <v>6.76</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1443868450820446</v>
+        <v>0.1579688359672825</v>
       </c>
       <c r="D19">
-        <v>0.2389438301324844</v>
+        <v>0.2542115449905396</v>
       </c>
       <c r="E19">
-        <v>53.215</v>
+        <v>53.13500000000001</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.0002675602745555807</v>
+        <v>0.0002682483508659061</v>
       </c>
       <c r="J19">
-        <v>98.29000000000001</v>
+        <v>98.34999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1439049909636378</v>
+        <v>0.1755437821149826</v>
       </c>
       <c r="D20">
-        <v>0.2452088743448257</v>
+        <v>0.2483470588922501</v>
       </c>
       <c r="E20">
-        <v>53.525</v>
+        <v>53.27</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.02086594519615173</v>
+        <v>0.02088141467571258</v>
       </c>
       <c r="J20">
-        <v>8.869999999999999</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1379555052270492</v>
+        <v>0.1680353479584058</v>
       </c>
       <c r="D21">
-        <v>0.2412450909614563</v>
+        <v>0.2503456771373749</v>
       </c>
       <c r="E21">
-        <v>53.305</v>
+        <v>53.415</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.0002499866552170715</v>
+        <v>0.0002544199104537256</v>
       </c>
       <c r="J21">
-        <v>98.48999999999999</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1388671972602606</v>
+        <v>0.1690367167939743</v>
       </c>
       <c r="D22">
-        <v>0.2586113214492798</v>
+        <v>0.255243331193924</v>
       </c>
       <c r="E22">
-        <v>53.205</v>
+        <v>53.415</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.02014222509860993</v>
+        <v>0.02064818980693817</v>
       </c>
       <c r="J22">
-        <v>10.42</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.1523091035087903</v>
+        <v>0.1650036757191022</v>
       </c>
       <c r="D23">
-        <v>0.2378242611885071</v>
+        <v>0.2550922334194183</v>
       </c>
       <c r="E23">
-        <v>54.31</v>
+        <v>53.535</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.0002483362459694035</v>
+        <v>0.000254316184273921</v>
       </c>
       <c r="J23">
-        <v>98.45</v>
+        <v>98.44</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1474626511832078</v>
+        <v>0.1632849116871754</v>
       </c>
       <c r="D24">
-        <v>0.2425275444984436</v>
+        <v>0.257259875535965</v>
       </c>
       <c r="E24">
-        <v>54.12</v>
+        <v>53.455</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.01937473766803741</v>
+        <v>0.01864898815155029</v>
       </c>
       <c r="J24">
-        <v>11.12</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1462327340741952</v>
+        <v>0.1780655626455943</v>
       </c>
       <c r="D25">
-        <v>0.2456542253494263</v>
+        <v>0.2403696775436401</v>
       </c>
       <c r="E25">
-        <v>54.145</v>
+        <v>53.01000000000001</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.0002217310499720043</v>
+        <v>0.0002287153666227823</v>
       </c>
       <c r="J25">
-        <v>98.65000000000001</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1464338100080689</v>
+        <v>0.1751153493672609</v>
       </c>
       <c r="D26">
-        <v>0.2447455227375031</v>
+        <v>0.2431586235761642</v>
       </c>
       <c r="E26">
-        <v>54.32</v>
+        <v>53.16</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.01833412292003632</v>
+        <v>0.01886890072822571</v>
       </c>
       <c r="J26">
-        <v>11.25</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.145234717912972</v>
+        <v>0.1756099180380503</v>
       </c>
       <c r="D27">
-        <v>0.2465426325798035</v>
+        <v>0.2452303469181061</v>
       </c>
       <c r="E27">
-        <v>54.14</v>
+        <v>53.145</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.000218703418802761</v>
+        <v>0.0002782615216972772</v>
       </c>
       <c r="J27">
-        <v>98.72</v>
+        <v>98.36</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1523306067412098</v>
+        <v>0.168756759489576</v>
       </c>
       <c r="D28">
-        <v>0.2341099679470062</v>
+        <v>0.2472129464149475</v>
       </c>
       <c r="E28">
-        <v>54.375</v>
+        <v>53.275</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,10 +1204,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.01987543234825134</v>
+        <v>0.01952069041728973</v>
       </c>
       <c r="J28">
-        <v>11.35</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.1542342942208052</v>
+        <v>0.1707041229556004</v>
       </c>
       <c r="D29">
-        <v>0.2349162846803665</v>
+        <v>0.2479714751243591</v>
       </c>
       <c r="E29">
-        <v>54.33</v>
+        <v>53.315</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.0002138775286060991</v>
+        <v>0.000273530780870351</v>
       </c>
       <c r="J29">
-        <v>98.67</v>
+        <v>98.38</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1506956713025769</v>
+        <v>0.1782029498492678</v>
       </c>
       <c r="D30">
-        <v>0.2364361733198166</v>
+        <v>0.2370546460151672</v>
       </c>
       <c r="E30">
-        <v>54.245</v>
+        <v>53.155</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,10 +1262,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.02054249577522278</v>
+        <v>0.01978887057304382</v>
       </c>
       <c r="J30">
-        <v>10.61</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1488332299267252</v>
+        <v>0.17525453624626</v>
       </c>
       <c r="D31">
-        <v>0.2379944175481796</v>
+        <v>0.2380913197994232</v>
       </c>
       <c r="E31">
-        <v>54.255</v>
+        <v>53.12</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.0002039452993645682</v>
+        <v>0.0002738521067949478</v>
       </c>
       <c r="J31">
-        <v>98.70999999999999</v>
+        <v>98.36</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.148706082465748</v>
+        <v>0.1753643681605657</v>
       </c>
       <c r="D32">
-        <v>0.2380727380514145</v>
+        <v>0.2388488799333572</v>
       </c>
       <c r="E32">
-        <v>54.195</v>
+        <v>53.105</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.0188695050239563</v>
+        <v>0.01952652950286865</v>
       </c>
       <c r="J32">
-        <v>9.880000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.1551778030395508</v>
+        <v>0.1758026572565238</v>
       </c>
       <c r="D33">
-        <v>0.2318674325942993</v>
+        <v>0.2396544814109802</v>
       </c>
       <c r="E33">
-        <v>54.43</v>
+        <v>53.075</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0002367264442829764</v>
+        <v>0.0002653142333729192</v>
       </c>
       <c r="J33">
-        <v>98.56</v>
+        <v>98.44</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1549870657920837</v>
+        <v>0.1747411658118168</v>
       </c>
       <c r="D34">
-        <v>0.2324682623147964</v>
+        <v>0.2405103892087936</v>
       </c>
       <c r="E34">
-        <v>54.41</v>
+        <v>53.13</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,28 +1378,13 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.0200175404548645</v>
+        <v>0.0195776344537735</v>
       </c>
       <c r="J34">
-        <v>8.970000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>0.1531921198219061</v>
-      </c>
-      <c r="D35">
-        <v>0.2329594194889069</v>
-      </c>
-      <c r="E35">
-        <v>54.365</v>
-      </c>
       <c r="G35">
         <v>1</v>
       </c>
@@ -1407,28 +1392,13 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.0002245546615624335</v>
+        <v>0.0002575975717205438</v>
       </c>
       <c r="J35">
-        <v>98.65000000000001</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>0.155038689772288</v>
-      </c>
-      <c r="D36">
-        <v>0.2333525717258453</v>
-      </c>
-      <c r="E36">
-        <v>54.345</v>
-      </c>
       <c r="G36">
         <v>2</v>
       </c>
@@ -1436,28 +1406,13 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.02021013174057007</v>
+        <v>0.01995722317695618</v>
       </c>
       <c r="J36">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>0.1519648538405697</v>
-      </c>
-      <c r="D37">
-        <v>0.2338577806949615</v>
-      </c>
-      <c r="E37">
-        <v>54.305</v>
-      </c>
       <c r="G37">
         <v>1</v>
       </c>
@@ -1465,10 +1420,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.000227465517539531</v>
+        <v>0.0002926240959437564</v>
       </c>
       <c r="J37">
-        <v>98.67</v>
+        <v>98.27</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,10 +1434,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.01998164081573486</v>
+        <v>0.01926747391223908</v>
       </c>
       <c r="J38">
-        <v>8.380000000000001</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1493,10 +1448,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.000222737376569421</v>
+        <v>0.0002870760141639039</v>
       </c>
       <c r="J39">
-        <v>98.66</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1507,10 +1462,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.02006510226726532</v>
+        <v>0.01957016987800598</v>
       </c>
       <c r="J40">
-        <v>7.95</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1521,10 +1476,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0002246661595330806</v>
+        <v>0.0002861221688333899</v>
       </c>
       <c r="J41">
-        <v>98.66</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1535,10 +1490,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.02057668867111206</v>
+        <v>0.01977937574386597</v>
       </c>
       <c r="J42">
-        <v>7.75</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1549,10 +1504,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.0002386780994056608</v>
+        <v>0.0002828594862599857</v>
       </c>
       <c r="J43">
-        <v>98.62</v>
+        <v>98.34999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1563,10 +1518,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.01970146667957306</v>
+        <v>0.01991284785270691</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1577,10 +1532,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.0002362081717612455</v>
+        <v>0.0002810262767598033</v>
       </c>
       <c r="J45">
-        <v>98.62</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1591,10 +1546,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.0198920934677124</v>
+        <v>0.02015227627754211</v>
       </c>
       <c r="J46">
-        <v>9.619999999999999</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1605,10 +1560,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.0002345474512811052</v>
+        <v>0.0002984518862067489</v>
       </c>
       <c r="J47">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1619,10 +1574,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.01975503494739532</v>
+        <v>0.01893838315010071</v>
       </c>
       <c r="J48">
-        <v>9.69</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -1633,10 +1588,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.000233660316868918</v>
+        <v>0.0002960374662070535</v>
       </c>
       <c r="J49">
-        <v>98.59</v>
+        <v>98.20999999999999</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1647,10 +1602,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.01959518706798553</v>
+        <v>0.01905508089065552</v>
       </c>
       <c r="J50">
-        <v>10.05</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -1661,10 +1616,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.0002335747659308254</v>
+        <v>0.000294124479900347</v>
       </c>
       <c r="J51">
-        <v>98.61</v>
+        <v>98.23999999999999</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1675,10 +1630,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.01986994824409485</v>
+        <v>0.01921109163761139</v>
       </c>
       <c r="J52">
-        <v>9.67</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -1689,10 +1644,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0002454163414964569</v>
+        <v>0.0002926423024386168</v>
       </c>
       <c r="J53">
-        <v>98.51000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1703,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.01989684200286865</v>
+        <v>0.01932126245498657</v>
       </c>
       <c r="J54">
-        <v>10.24</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -1717,10 +1672,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.0002430217663510121</v>
+        <v>0.0002911900558538037</v>
       </c>
       <c r="J55">
-        <v>98.58</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1731,10 +1686,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.01975981841087341</v>
+        <v>0.0194117662191391</v>
       </c>
       <c r="J56">
-        <v>10.08</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -1745,10 +1700,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.0002409626934837434</v>
+        <v>0.0003026270345319062</v>
       </c>
       <c r="J57">
-        <v>98.59</v>
+        <v>98.19</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1759,10 +1714,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.01972264285087585</v>
+        <v>0.01891675193309784</v>
       </c>
       <c r="J58">
-        <v>9.9</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -1773,10 +1728,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.0002396318947678083</v>
+        <v>0.0003012481867335737</v>
       </c>
       <c r="J59">
-        <v>98.59</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1787,10 +1742,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.01965484030246735</v>
+        <v>0.01891586525440216</v>
       </c>
       <c r="J60">
-        <v>9.92</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -1801,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0002386952570654102</v>
+        <v>0.0003002548097283579</v>
       </c>
       <c r="J61">
-        <v>98.59</v>
+        <v>98.19</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1815,10 +1770,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.01965977976322174</v>
+        <v>0.01893532791137695</v>
       </c>
       <c r="J62">
-        <v>9.800000000000001</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -1829,10 +1784,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.000248638390848646</v>
+        <v>0.0002991012738610152</v>
       </c>
       <c r="J63">
-        <v>98.51000000000001</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1843,10 +1798,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.02008585689067841</v>
+        <v>0.0189500207901001</v>
       </c>
       <c r="J64">
-        <v>10.35</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -1857,10 +1812,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.0002474301821333939</v>
+        <v>0.0002982600701507181</v>
       </c>
       <c r="J65">
-        <v>98.53</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1871,94 +1826,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.02001674647331238</v>
+        <v>0.01896540751457214</v>
       </c>
       <c r="J66">
-        <v>10.29</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10">
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>33</v>
-      </c>
-      <c r="I67">
-        <v>0.0002465094980521826</v>
-      </c>
-      <c r="J67">
-        <v>98.53</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10">
-      <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68">
-        <v>33</v>
-      </c>
-      <c r="I68">
-        <v>0.01997279512882233</v>
-      </c>
-      <c r="J68">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10">
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>34</v>
-      </c>
-      <c r="I69">
-        <v>0.0002456410014667199</v>
-      </c>
-      <c r="J69">
-        <v>98.53</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10">
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>34</v>
-      </c>
-      <c r="I70">
-        <v>0.01992912156581879</v>
-      </c>
-      <c r="J70">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10">
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>35</v>
-      </c>
-      <c r="I71">
-        <v>0.0002448854329792084</v>
-      </c>
-      <c r="J71">
-        <v>98.53</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10">
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>35</v>
-      </c>
-      <c r="I72">
-        <v>0.01989168405532837</v>
-      </c>
-      <c r="J72">
-        <v>10.08</v>
+        <v>8.06</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2031,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.237749552329381</v>
+        <v>1.226454262733459</v>
       </c>
       <c r="D3">
-        <v>0.6036104559898376</v>
+        <v>0.6179221272468567</v>
       </c>
       <c r="E3">
-        <v>61.09</v>
+        <v>61.95999999999999</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2046,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.009463879203796387</v>
+        <v>0.0103596927523613</v>
       </c>
       <c r="J3">
-        <v>45.92</v>
+        <v>47.65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2060,13 +1931,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7758918660879135</v>
+        <v>0.7621924656629563</v>
       </c>
       <c r="D4">
-        <v>0.5147585272789001</v>
+        <v>0.510287344455719</v>
       </c>
       <c r="E4">
-        <v>57.31999999999999</v>
+        <v>53.58</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2075,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.003270643794536591</v>
+        <v>0.003203292983770371</v>
       </c>
       <c r="J4">
-        <v>76.26000000000001</v>
+        <v>76.27</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2089,13 +1960,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.6773858055472374</v>
+        <v>0.6739338630437851</v>
       </c>
       <c r="D5">
-        <v>0.4421827793121338</v>
+        <v>0.4597175121307373</v>
       </c>
       <c r="E5">
-        <v>51.85</v>
+        <v>49.09</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2104,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01441567895412445</v>
+        <v>0.01669181237220764</v>
       </c>
       <c r="J5">
-        <v>33.9</v>
+        <v>27.33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2118,13 +1989,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6217709266146024</v>
+        <v>0.6255161899328232</v>
       </c>
       <c r="D6">
-        <v>0.4224390387535095</v>
+        <v>0.420552134513855</v>
       </c>
       <c r="E6">
-        <v>51.105</v>
+        <v>49.515</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2133,10 +2004,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.002747585770487785</v>
+        <v>0.002731951609253883</v>
       </c>
       <c r="J6">
-        <v>80.73999999999999</v>
+        <v>79.83</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2147,13 +2018,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5819115721186002</v>
+        <v>0.5998310366272926</v>
       </c>
       <c r="D7">
-        <v>0.401594340801239</v>
+        <v>0.4004828631877899</v>
       </c>
       <c r="E7">
-        <v>51.595</v>
+        <v>50.78</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2162,10 +2033,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01853552825450897</v>
+        <v>0.02242491407394409</v>
       </c>
       <c r="J7">
-        <v>21.2</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2176,13 +2047,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5559946645299594</v>
+        <v>0.5670830806096395</v>
       </c>
       <c r="D8">
-        <v>0.3945497572422028</v>
+        <v>0.4146692752838135</v>
       </c>
       <c r="E8">
-        <v>50.96</v>
+        <v>49.975</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2191,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.002510128420591354</v>
+        <v>0.002540709695219993</v>
       </c>
       <c r="J8">
-        <v>82.5</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2205,13 +2076,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5344527413447698</v>
+        <v>0.5500350893537204</v>
       </c>
       <c r="D9">
-        <v>0.3694390952587128</v>
+        <v>0.3899434804916382</v>
       </c>
       <c r="E9">
-        <v>50.90000000000001</v>
+        <v>49.885</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2220,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.02032870182991028</v>
+        <v>0.02246628758907318</v>
       </c>
       <c r="J9">
-        <v>18.77</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2234,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5228147498766581</v>
+        <v>0.5258350538214048</v>
       </c>
       <c r="D10">
-        <v>0.3670502901077271</v>
+        <v>0.3946041166782379</v>
       </c>
       <c r="E10">
-        <v>51.76</v>
+        <v>49.925</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2249,10 +2120,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.002329099541902542</v>
+        <v>0.00234534760415554</v>
       </c>
       <c r="J10">
-        <v>83.44</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2263,13 +2134,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.506785181860129</v>
+        <v>0.5161162859201431</v>
       </c>
       <c r="D11">
-        <v>0.3636478185653687</v>
+        <v>0.3815075159072876</v>
       </c>
       <c r="E11">
-        <v>50.445</v>
+        <v>49.865</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2278,10 +2149,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.02265234756469726</v>
+        <v>0.02365121381282806</v>
       </c>
       <c r="J11">
-        <v>18.89</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2292,13 +2163,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.492577275733153</v>
+        <v>0.5036970813075702</v>
       </c>
       <c r="D12">
-        <v>0.3489280939102173</v>
+        <v>0.3671959936618805</v>
       </c>
       <c r="E12">
-        <v>49.97</v>
+        <v>50.08</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2307,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.002194207119941712</v>
+        <v>0.002236308285593987</v>
       </c>
       <c r="J12">
-        <v>84.3</v>
+        <v>84.09</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2321,13 +2192,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4896992588043213</v>
+        <v>0.4941018956899643</v>
       </c>
       <c r="D13">
-        <v>0.3515020310878754</v>
+        <v>0.350835382938385</v>
       </c>
       <c r="E13">
-        <v>50.775</v>
+        <v>50.52</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2336,10 +2207,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0237403576374054</v>
+        <v>0.02666197061538696</v>
       </c>
       <c r="J13">
-        <v>17.49</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2350,13 +2221,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4824857876698176</v>
+        <v>0.4872401052713394</v>
       </c>
       <c r="D14">
-        <v>0.3345791697502136</v>
+        <v>0.3312489688396454</v>
       </c>
       <c r="E14">
-        <v>49.85</v>
+        <v>50.36499999999999</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2365,10 +2236,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.002112706497311592</v>
+        <v>0.002212845426797867</v>
       </c>
       <c r="J14">
-        <v>84.43000000000001</v>
+        <v>84.09</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2379,13 +2250,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4705020499229431</v>
+        <v>0.473608599503835</v>
       </c>
       <c r="D15">
-        <v>0.3335868716239929</v>
+        <v>0.3221419155597687</v>
       </c>
       <c r="E15">
-        <v>48.945</v>
+        <v>49.45500000000001</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2394,10 +2265,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.02575889902114868</v>
+        <v>0.02443445243835449</v>
       </c>
       <c r="J15">
-        <v>16.21</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2408,13 +2279,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4701410779356957</v>
+        <v>0.4719769433140755</v>
       </c>
       <c r="D16">
-        <v>0.3375836312770844</v>
+        <v>0.3159779012203217</v>
       </c>
       <c r="E16">
-        <v>48.92</v>
+        <v>50.37</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2423,10 +2294,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.00201869949400425</v>
+        <v>0.002097053271532059</v>
       </c>
       <c r="J16">
-        <v>85.59</v>
+        <v>84.83</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2437,13 +2308,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4611253696680069</v>
+        <v>0.466760934094588</v>
       </c>
       <c r="D17">
-        <v>0.3414072692394257</v>
+        <v>0.3132854998111725</v>
       </c>
       <c r="E17">
-        <v>49.63</v>
+        <v>49.93</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2452,10 +2323,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.0231498200416565</v>
+        <v>0.02768286266326904</v>
       </c>
       <c r="J17">
-        <v>17.81</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2466,13 +2337,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4535957113901774</v>
+        <v>0.4592912621299426</v>
       </c>
       <c r="D18">
-        <v>0.3195643723011017</v>
+        <v>0.3127700388431549</v>
       </c>
       <c r="E18">
-        <v>49.125</v>
+        <v>49.305</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2481,10 +2352,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.002010662740468979</v>
+        <v>0.002035482636094093</v>
       </c>
       <c r="J18">
-        <v>85.70999999999999</v>
+        <v>85.17</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2495,13 +2366,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.4504018624623616</v>
+        <v>0.4551765342553457</v>
       </c>
       <c r="D19">
-        <v>0.314779132604599</v>
+        <v>0.3125156164169312</v>
       </c>
       <c r="E19">
-        <v>49.37</v>
+        <v>49.66</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2510,10 +2381,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.02795801196098328</v>
+        <v>0.02685058708190918</v>
       </c>
       <c r="J19">
-        <v>15.14</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2524,13 +2395,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.4426559743285179</v>
+        <v>0.4495123637715975</v>
       </c>
       <c r="D20">
-        <v>0.2916334867477417</v>
+        <v>0.3035653531551361</v>
       </c>
       <c r="E20">
-        <v>49.76</v>
+        <v>49.655</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2539,10 +2410,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.001956812515854835</v>
+        <v>0.001979934963583946</v>
       </c>
       <c r="J20">
-        <v>85.75</v>
+        <v>85.48</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2553,13 +2424,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4376794097820918</v>
+        <v>0.4480335249503454</v>
       </c>
       <c r="D21">
-        <v>0.303507000207901</v>
+        <v>0.307112991809845</v>
       </c>
       <c r="E21">
-        <v>49.495</v>
+        <v>49.06999999999999</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2568,10 +2439,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.02730660264492035</v>
+        <v>0.02585862934589386</v>
       </c>
       <c r="J21">
-        <v>14.21</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2582,13 +2453,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4397184390823046</v>
+        <v>0.4414855315287908</v>
       </c>
       <c r="D22">
-        <v>0.2867336869239807</v>
+        <v>0.3028272390365601</v>
       </c>
       <c r="E22">
-        <v>49.07000000000001</v>
+        <v>49.41</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2597,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.001911763429641724</v>
+        <v>0.00193341463804245</v>
       </c>
       <c r="J22">
         <v>85.73</v>
@@ -2611,13 +2482,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4333913990855217</v>
+        <v>0.4366428875923157</v>
       </c>
       <c r="D23">
-        <v>0.2833842635154724</v>
+        <v>0.2862929701805115</v>
       </c>
       <c r="E23">
-        <v>49.14</v>
+        <v>49.375</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2626,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.02632687847614288</v>
+        <v>0.02439868373870849</v>
       </c>
       <c r="J23">
-        <v>15.47</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2640,13 +2511,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4285501326123873</v>
+        <v>0.4295247561732928</v>
       </c>
       <c r="D24">
-        <v>0.2944390177726746</v>
+        <v>0.302005797624588</v>
       </c>
       <c r="E24">
-        <v>49.19</v>
+        <v>49.62</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2655,10 +2526,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.001874175819754601</v>
+        <v>0.001920577496290207</v>
       </c>
       <c r="J24">
-        <v>86.08</v>
+        <v>85.89</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2669,13 +2540,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4266893694798152</v>
+        <v>0.4299776694178581</v>
       </c>
       <c r="D25">
-        <v>0.2694174945354462</v>
+        <v>0.2878168821334839</v>
       </c>
       <c r="E25">
-        <v>49.405</v>
+        <v>48.77</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2684,10 +2555,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.02771372148990631</v>
+        <v>0.02780650181770325</v>
       </c>
       <c r="J25">
-        <v>13.58</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2698,13 +2569,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.4236201131343841</v>
+        <v>0.4281758732597033</v>
       </c>
       <c r="D26">
-        <v>0.2742297649383545</v>
+        <v>0.269869327545166</v>
       </c>
       <c r="E26">
-        <v>49.005</v>
+        <v>49.46</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2713,10 +2584,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.001833752024173736</v>
+        <v>0.001893971183896065</v>
       </c>
       <c r="J26">
-        <v>86.12</v>
+        <v>86.16</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2727,13 +2598,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.4200968473156293</v>
+        <v>0.4222003373503685</v>
       </c>
       <c r="D27">
-        <v>0.2709594666957855</v>
+        <v>0.2701480090618134</v>
       </c>
       <c r="E27">
-        <v>48.8</v>
+        <v>49.075</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2742,10 +2613,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.03493481760025025</v>
+        <v>0.02852654204368591</v>
       </c>
       <c r="J27">
-        <v>11.62</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2756,13 +2627,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.4162050632635753</v>
+        <v>0.4223794184128443</v>
       </c>
       <c r="D28">
-        <v>0.2632100284099579</v>
+        <v>0.2533112168312073</v>
       </c>
       <c r="E28">
-        <v>48.935</v>
+        <v>49.065</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2771,10 +2642,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.001825049835443497</v>
+        <v>0.001854837089776993</v>
       </c>
       <c r="J28">
-        <v>86.27</v>
+        <v>86.26000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2785,13 +2656,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.4142652038733164</v>
+        <v>0.4192134040594101</v>
       </c>
       <c r="D29">
-        <v>0.2854045927524567</v>
+        <v>0.2739405930042267</v>
       </c>
       <c r="E29">
-        <v>49.01</v>
+        <v>49.315</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2800,10 +2671,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.03551715259552002</v>
+        <v>0.0299188316822052</v>
       </c>
       <c r="J29">
-        <v>11.44</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2814,13 +2685,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.4098414434989293</v>
+        <v>0.4180659847458204</v>
       </c>
       <c r="D30">
-        <v>0.2656529545783997</v>
+        <v>0.2644815146923065</v>
       </c>
       <c r="E30">
-        <v>48.925</v>
+        <v>49.22</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2829,10 +2700,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.001803336378931999</v>
+        <v>0.001846653527021408</v>
       </c>
       <c r="J30">
-        <v>86.40000000000001</v>
+        <v>86.15000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2843,13 +2714,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.4076089340448379</v>
+        <v>0.4150244617462158</v>
       </c>
       <c r="D31">
-        <v>0.2672170996665955</v>
+        <v>0.2861925065517426</v>
       </c>
       <c r="E31">
-        <v>48.845</v>
+        <v>49.675</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2858,10 +2729,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.02882019164562225</v>
+        <v>0.02802124261856079</v>
       </c>
       <c r="J31">
-        <v>12.61</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2872,13 +2743,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.4082246204217275</v>
+        <v>0.4143573347727458</v>
       </c>
       <c r="D32">
-        <v>0.2612808048725128</v>
+        <v>0.2810972929000854</v>
       </c>
       <c r="E32">
-        <v>49.25</v>
+        <v>49.785</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2887,10 +2758,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.00178458109498024</v>
+        <v>0.001798044380545616</v>
       </c>
       <c r="J32">
-        <v>86.65000000000001</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2901,13 +2772,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.4050166894495487</v>
+        <v>0.4086950734257698</v>
       </c>
       <c r="D33">
-        <v>0.2607980668544769</v>
+        <v>0.267687976360321</v>
       </c>
       <c r="E33">
-        <v>48.89</v>
+        <v>49.885</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2916,10 +2787,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.03377619137763977</v>
+        <v>0.03414141497611999</v>
       </c>
       <c r="J33">
-        <v>11.22</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2930,13 +2801,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3988236558437347</v>
+        <v>0.408135959704717</v>
       </c>
       <c r="D34">
-        <v>0.2591095268726349</v>
+        <v>0.2641554474830627</v>
       </c>
       <c r="E34">
-        <v>48.81</v>
+        <v>49.405</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2945,10 +2816,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.001755226324498653</v>
+        <v>0.001796486103534699</v>
       </c>
       <c r="J34">
-        <v>87.03</v>
+        <v>86.69</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2959,13 +2830,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.4038930630683899</v>
+        <v>0.4072805517911911</v>
       </c>
       <c r="D35">
-        <v>0.2585631012916565</v>
+        <v>0.2622089684009552</v>
       </c>
       <c r="E35">
-        <v>48.375</v>
+        <v>49.55</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2974,10 +2845,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.02968207216262818</v>
+        <v>0.03606578259468079</v>
       </c>
       <c r="J35">
-        <v>11.55</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2988,13 +2859,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.4008220855394999</v>
+        <v>0.4045146238307158</v>
       </c>
       <c r="D36">
-        <v>0.2577314078807831</v>
+        <v>0.2592971324920654</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>49.59</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3003,10 +2874,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.001748364681005478</v>
+        <v>0.001766105717420578</v>
       </c>
       <c r="J36">
-        <v>87.19</v>
+        <v>86.77</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3017,13 +2888,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.3943779652317365</v>
+        <v>0.4051463728646437</v>
       </c>
       <c r="D37">
-        <v>0.2619107961654663</v>
+        <v>0.2622072994709015</v>
       </c>
       <c r="E37">
-        <v>48.86</v>
+        <v>49.51000000000001</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3032,10 +2903,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.02896735701560974</v>
+        <v>0.02954109106063843</v>
       </c>
       <c r="J37">
-        <v>12.38</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3046,13 +2917,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3966573788722356</v>
+        <v>0.4049044653773308</v>
       </c>
       <c r="D38">
-        <v>0.2605233490467072</v>
+        <v>0.2592815756797791</v>
       </c>
       <c r="E38">
-        <v>49.035</v>
+        <v>49.43</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3061,10 +2932,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.001726668731868267</v>
+        <v>0.001772786572575569</v>
       </c>
       <c r="J38">
-        <v>87.14</v>
+        <v>86.88</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3075,13 +2946,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.3917667608459791</v>
+        <v>0.4148665191729863</v>
       </c>
       <c r="D39">
-        <v>0.2769504189491272</v>
+        <v>0.2611523270606995</v>
       </c>
       <c r="E39">
-        <v>49.115</v>
+        <v>49.265</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3090,10 +2961,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.03330161542892456</v>
+        <v>0.03379436359405517</v>
       </c>
       <c r="J39">
-        <v>11.72</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3104,13 +2975,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.3908625639478366</v>
+        <v>0.4082319590449333</v>
       </c>
       <c r="D40">
-        <v>0.2778544723987579</v>
+        <v>0.2601832747459412</v>
       </c>
       <c r="E40">
-        <v>48.77</v>
+        <v>49.29</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3119,10 +2990,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.001708807867765427</v>
+        <v>0.001737148100137711</v>
       </c>
       <c r="J40">
-        <v>87.27</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3133,13 +3004,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.3919653048117955</v>
+        <v>0.4080308679242929</v>
       </c>
       <c r="D41">
-        <v>0.259971410036087</v>
+        <v>0.2622702717781067</v>
       </c>
       <c r="E41">
-        <v>49.105</v>
+        <v>49.3</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3148,10 +3019,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0380714747428894</v>
+        <v>0.03018389410972595</v>
       </c>
       <c r="J41">
-        <v>10.71</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3162,13 +3033,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.389563918809096</v>
+        <v>0.4044602635999521</v>
       </c>
       <c r="D42">
-        <v>0.2507887780666351</v>
+        <v>0.2590130865573883</v>
       </c>
       <c r="E42">
-        <v>48.86</v>
+        <v>49.305</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3177,10 +3048,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.001710426284372806</v>
+        <v>0.001734369678795338</v>
       </c>
       <c r="J42">
-        <v>87.43000000000001</v>
+        <v>87.20999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3191,13 +3062,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.3877659672498703</v>
+        <v>0.4006434407830238</v>
       </c>
       <c r="D43">
-        <v>0.2535118162631989</v>
+        <v>0.2572376430034637</v>
       </c>
       <c r="E43">
-        <v>48.815</v>
+        <v>49.33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3206,10 +3077,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.03753834600448609</v>
+        <v>0.03173348951339722</v>
       </c>
       <c r="J43">
-        <v>10.8</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3220,13 +3091,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.3816331598162651</v>
+        <v>0.4168652883172035</v>
       </c>
       <c r="D44">
-        <v>0.2543676197528839</v>
+        <v>0.2556962668895721</v>
       </c>
       <c r="E44">
-        <v>48.69</v>
+        <v>49.14</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -3235,10 +3106,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.001687979535758495</v>
+        <v>0.001705762782692909</v>
       </c>
       <c r="J44">
-        <v>87.48</v>
+        <v>87.13</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3249,13 +3120,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.3810196009278297</v>
+        <v>0.4154793346921603</v>
       </c>
       <c r="D45">
-        <v>0.2554746866226196</v>
+        <v>0.2575047016143799</v>
       </c>
       <c r="E45">
-        <v>48.92</v>
+        <v>49.205</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3264,10 +3135,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.0377253716468811</v>
+        <v>0.03296208505630494</v>
       </c>
       <c r="J45">
-        <v>10.7</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3278,13 +3149,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.379889949609836</v>
+        <v>0.4137549721201261</v>
       </c>
       <c r="D46">
-        <v>0.2581579685211182</v>
+        <v>0.2586919069290161</v>
       </c>
       <c r="E46">
-        <v>48.86</v>
+        <v>49.225</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -3293,10 +3164,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.001674247926473617</v>
+        <v>0.001685995118319988</v>
       </c>
       <c r="J46">
-        <v>87.68000000000001</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3307,13 +3178,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.3802245181798935</v>
+        <v>0.4095113734404246</v>
       </c>
       <c r="D47">
-        <v>0.2587049901485443</v>
+        <v>0.2598171234130859</v>
       </c>
       <c r="E47">
-        <v>48.82000000000001</v>
+        <v>49.24</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3322,10 +3193,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.03616678504943847</v>
+        <v>0.03726144504547119</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3336,13 +3207,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.3842056362827619</v>
+        <v>0.4127211897571881</v>
       </c>
       <c r="D48">
-        <v>0.2574878633022308</v>
+        <v>0.2588716447353363</v>
       </c>
       <c r="E48">
-        <v>48.915</v>
+        <v>49.25</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3351,10 +3222,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.001644240644574165</v>
+        <v>0.001685169234871864</v>
       </c>
       <c r="J48">
-        <v>87.81</v>
+        <v>87.69</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3365,13 +3236,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.3818097938100497</v>
+        <v>0.4155461632212003</v>
       </c>
       <c r="D49">
-        <v>0.2573028802871704</v>
+        <v>0.2538375556468964</v>
       </c>
       <c r="E49">
-        <v>48.925</v>
+        <v>49.08</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3380,10 +3251,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.04103355712890625</v>
+        <v>0.03223754367828369</v>
       </c>
       <c r="J49">
-        <v>10.33</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3394,13 +3265,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.3860971476137638</v>
+        <v>0.4173453920086225</v>
       </c>
       <c r="D50">
-        <v>0.2566745579242706</v>
+        <v>0.2542898654937744</v>
       </c>
       <c r="E50">
-        <v>48.875</v>
+        <v>49.07</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -3409,10 +3280,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.00165848822593689</v>
+        <v>0.001659337106347084</v>
       </c>
       <c r="J50">
-        <v>87.68000000000001</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3423,13 +3294,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.3863109648227692</v>
+        <v>0.4145775865515073</v>
       </c>
       <c r="D51">
-        <v>0.2564509510993958</v>
+        <v>0.254698783159256</v>
       </c>
       <c r="E51">
-        <v>48.82</v>
+        <v>49.125</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3438,10 +3309,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.04596914100646973</v>
+        <v>0.03709334774017334</v>
       </c>
       <c r="J51">
-        <v>9.630000000000001</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3452,13 +3323,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.3786181347072125</v>
+        <v>0.4147138907512029</v>
       </c>
       <c r="D52">
-        <v>0.2550803124904633</v>
+        <v>0.2551902532577515</v>
       </c>
       <c r="E52">
-        <v>48.845</v>
+        <v>49.12</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3467,10 +3338,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.001660718460381031</v>
+        <v>0.001661689876019955</v>
       </c>
       <c r="J52">
-        <v>87.97</v>
+        <v>87.68000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3481,13 +3352,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.3862990732987722</v>
+        <v>0.4111756122112274</v>
       </c>
       <c r="D53">
-        <v>0.2527647912502289</v>
+        <v>0.2556356489658356</v>
       </c>
       <c r="E53">
-        <v>48.87</v>
+        <v>49.155</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3496,28 +3367,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0440521909236908</v>
+        <v>0.0355939489364624</v>
       </c>
       <c r="J53">
-        <v>9.859999999999999</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.3830782388647397</v>
-      </c>
-      <c r="D54">
-        <v>0.2546243071556091</v>
-      </c>
-      <c r="E54">
-        <v>48.89</v>
-      </c>
       <c r="G54">
         <v>2</v>
       </c>
@@ -3525,28 +3381,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.001623411132395267</v>
+        <v>0.001635909825563431</v>
       </c>
       <c r="J54">
-        <v>88.01000000000001</v>
+        <v>87.98999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.3826087208092213</v>
-      </c>
-      <c r="D55">
-        <v>0.255068838596344</v>
-      </c>
-      <c r="E55">
-        <v>48.86</v>
-      </c>
       <c r="G55">
         <v>1</v>
       </c>
@@ -3554,28 +3395,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.03803947157859802</v>
+        <v>0.03708278646469116</v>
       </c>
       <c r="J55">
-        <v>10.03</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.3807983530561129</v>
-      </c>
-      <c r="D56">
-        <v>0.255783885717392</v>
-      </c>
-      <c r="E56">
-        <v>48.895</v>
-      </c>
       <c r="G56">
         <v>2</v>
       </c>
@@ -3583,28 +3409,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.001632630783319473</v>
+        <v>0.00164248713105917</v>
       </c>
       <c r="J56">
-        <v>87.98999999999999</v>
+        <v>87.87</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>0.3827710790435473</v>
-      </c>
-      <c r="D57">
-        <v>0.2560880184173584</v>
-      </c>
-      <c r="E57">
-        <v>48.89</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
@@ -3612,28 +3423,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.04059356989860535</v>
+        <v>0.0388896975517273</v>
       </c>
       <c r="J57">
-        <v>9.73</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>0.3852283936738968</v>
-      </c>
-      <c r="D58">
-        <v>0.2513909637928009</v>
-      </c>
-      <c r="E58">
-        <v>48.855</v>
-      </c>
       <c r="G58">
         <v>2</v>
       </c>
@@ -3641,28 +3437,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.001599166069924831</v>
+        <v>0.001636154259741306</v>
       </c>
       <c r="J58">
-        <v>88.12</v>
+        <v>87.83</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>0.386534692645073</v>
-      </c>
-      <c r="D59">
-        <v>0.2516805827617645</v>
-      </c>
-      <c r="E59">
-        <v>48.865</v>
-      </c>
       <c r="G59">
         <v>1</v>
       </c>
@@ -3670,28 +3451,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.04393073987960815</v>
+        <v>0.04105461864471435</v>
       </c>
       <c r="J59">
-        <v>9.470000000000001</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>0.3853493772943815</v>
-      </c>
-      <c r="D60">
-        <v>0.2520068287849426</v>
-      </c>
-      <c r="E60">
-        <v>48.87</v>
-      </c>
       <c r="G60">
         <v>2</v>
       </c>
@@ -3699,28 +3465,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.001601505196094513</v>
+        <v>0.001642402157187462</v>
       </c>
       <c r="J60">
-        <v>88.22</v>
+        <v>87.91</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>0.3844206506510576</v>
-      </c>
-      <c r="D61">
-        <v>0.2522334158420563</v>
-      </c>
-      <c r="E61">
-        <v>48.87</v>
-      </c>
       <c r="G61">
         <v>1</v>
       </c>
@@ -3728,28 +3479,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.04431357989311218</v>
+        <v>0.03985842003822326</v>
       </c>
       <c r="J61">
-        <v>10.11</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>0.382583369910717</v>
-      </c>
-      <c r="D62">
-        <v>0.2525413036346436</v>
-      </c>
-      <c r="E62">
-        <v>48.88500000000001</v>
-      </c>
       <c r="G62">
         <v>2</v>
       </c>
@@ -3757,10 +3493,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.001591887891292572</v>
+        <v>0.00162207999676466</v>
       </c>
       <c r="J62">
-        <v>88.39</v>
+        <v>88.19</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3771,10 +3507,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.04065245227813721</v>
+        <v>0.03874034309387207</v>
       </c>
       <c r="J63">
-        <v>9.48</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3785,10 +3521,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.001579461452364922</v>
+        <v>0.001617224891483784</v>
       </c>
       <c r="J64">
-        <v>88.3</v>
+        <v>87.97</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3799,10 +3535,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.04146989011764526</v>
+        <v>0.0377323561668396</v>
       </c>
       <c r="J65">
-        <v>9.449999999999999</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3813,10 +3549,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.001593732899427414</v>
+        <v>0.001624921622872353</v>
       </c>
       <c r="J66">
-        <v>88.17</v>
+        <v>88.13</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3827,10 +3563,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.04609966478347778</v>
+        <v>0.03672801074981689</v>
       </c>
       <c r="J67">
-        <v>8.800000000000001</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -3841,10 +3577,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.001592997020483017</v>
+        <v>0.001623751953244209</v>
       </c>
       <c r="J68">
-        <v>87.95</v>
+        <v>88.18000000000001</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3855,10 +3591,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.04102207307815552</v>
+        <v>0.03831899919509887</v>
       </c>
       <c r="J69">
-        <v>9.57</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -3869,10 +3605,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.001553193686902523</v>
+        <v>0.001624555264413357</v>
       </c>
       <c r="J70">
-        <v>88.43000000000001</v>
+        <v>88.23</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3883,10 +3619,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.04478011980056763</v>
+        <v>0.03822028789520264</v>
       </c>
       <c r="J71">
-        <v>9.56</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -3897,10 +3633,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.001569421124458313</v>
+        <v>0.001624689647555351</v>
       </c>
       <c r="J72">
-        <v>88.16</v>
+        <v>88.01000000000001</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3911,10 +3647,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.04555840139389038</v>
+        <v>0.03709772973060608</v>
       </c>
       <c r="J73">
-        <v>9.800000000000001</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -3925,10 +3661,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.001572704443335533</v>
+        <v>0.001616100183129311</v>
       </c>
       <c r="J74">
-        <v>88.27</v>
+        <v>88.12</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -3939,10 +3675,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.0466786874294281</v>
+        <v>0.03535226073265076</v>
       </c>
       <c r="J75">
-        <v>9.75</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -3953,10 +3689,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.001577722632884979</v>
+        <v>0.001631061175465584</v>
       </c>
       <c r="J76">
-        <v>88.48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -3967,10 +3703,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.0480241973400116</v>
+        <v>0.03553369417190552</v>
       </c>
       <c r="J77">
-        <v>9.31</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -3981,10 +3717,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.001586081050336361</v>
+        <v>0.001628383202850819</v>
       </c>
       <c r="J78">
-        <v>88.23</v>
+        <v>87.98999999999999</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -3995,10 +3731,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.04729725203514099</v>
+        <v>0.03544570636749268</v>
       </c>
       <c r="J79">
-        <v>9.76</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -4009,10 +3745,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.001548788784444332</v>
+        <v>0.001626128648221493</v>
       </c>
       <c r="J80">
-        <v>88.45</v>
+        <v>87.98</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -4023,10 +3759,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.04554241523742675</v>
+        <v>0.03656796364784241</v>
       </c>
       <c r="J81">
-        <v>9.16</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4037,10 +3773,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.001549474194645882</v>
+        <v>0.001624994921684265</v>
       </c>
       <c r="J82">
-        <v>88.56</v>
+        <v>87.95</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4051,10 +3787,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.0473604341506958</v>
+        <v>0.03743815417289734</v>
       </c>
       <c r="J83">
-        <v>9.109999999999999</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -4065,10 +3801,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.001544945472478867</v>
+        <v>0.001624105650186539</v>
       </c>
       <c r="J84">
-        <v>88.52</v>
+        <v>88.03</v>
       </c>
     </row>
     <row r="85" spans="7:10">
@@ -4079,10 +3815,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.04673542742729187</v>
+        <v>0.03540424251556396</v>
       </c>
       <c r="J85">
-        <v>9.029999999999999</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="86" spans="7:10">
@@ -4093,10 +3829,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.001547490924596786</v>
+        <v>0.001630492423474789</v>
       </c>
       <c r="J86">
-        <v>88.34999999999999</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="87" spans="7:10">
@@ -4107,10 +3843,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.04673119564056397</v>
+        <v>0.03549883008003235</v>
       </c>
       <c r="J87">
-        <v>9.23</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="88" spans="7:10">
@@ -4121,10 +3857,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.001538390427827835</v>
+        <v>0.001629236754775047</v>
       </c>
       <c r="J88">
-        <v>88.61</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="89" spans="7:10">
@@ -4135,10 +3871,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.04881453356742859</v>
+        <v>0.03539318051338196</v>
       </c>
       <c r="J89">
-        <v>9.029999999999999</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="90" spans="7:10">
@@ -4149,10 +3885,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.001543789717555046</v>
+        <v>0.00162935167402029</v>
       </c>
       <c r="J90">
-        <v>88.69</v>
+        <v>88.04000000000001</v>
       </c>
     </row>
     <row r="91" spans="7:10">
@@ -4163,10 +3899,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.04694849805831909</v>
+        <v>0.03545402545928955</v>
       </c>
       <c r="J91">
-        <v>8.960000000000001</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="92" spans="7:10">
@@ -4177,10 +3913,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.001542539815604687</v>
+        <v>0.001628941871225834</v>
       </c>
       <c r="J92">
-        <v>88.68000000000001</v>
+        <v>88.01000000000001</v>
       </c>
     </row>
     <row r="93" spans="7:10">
@@ -4191,10 +3927,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.04604195380210876</v>
+        <v>0.0355871193408966</v>
       </c>
       <c r="J93">
-        <v>9.23</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="94" spans="7:10">
@@ -4205,10 +3941,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.001548194456100464</v>
+        <v>0.001629404471814632</v>
       </c>
       <c r="J94">
-        <v>88.59999999999999</v>
+        <v>88.05</v>
       </c>
     </row>
     <row r="95" spans="7:10">
@@ -4219,10 +3955,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.04588290877342224</v>
+        <v>0.03553847613334656</v>
       </c>
       <c r="J95">
-        <v>9.279999999999999</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="96" spans="7:10">
@@ -4233,10 +3969,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.001548403652012348</v>
+        <v>0.001634196071326733</v>
       </c>
       <c r="J96">
-        <v>88.56999999999999</v>
+        <v>88.03</v>
       </c>
     </row>
     <row r="97" spans="7:10">
@@ -4247,10 +3983,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.04603838801383972</v>
+        <v>0.03551554975509644</v>
       </c>
       <c r="J97">
-        <v>9.199999999999999</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="98" spans="7:10">
@@ -4261,10 +3997,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.001550865437090397</v>
+        <v>0.001632873944938183</v>
       </c>
       <c r="J98">
-        <v>88.55</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="99" spans="7:10">
@@ -4275,10 +4011,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.04544493255615235</v>
+        <v>0.0354766297340393</v>
       </c>
       <c r="J99">
-        <v>9.15</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="100" spans="7:10">
@@ -4289,10 +4025,10 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.001549174173176289</v>
+        <v>0.001631944507360458</v>
       </c>
       <c r="J100">
-        <v>88.48999999999999</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="101" spans="7:10">
@@ -4303,10 +4039,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.04584649615287781</v>
+        <v>0.0354400562286377</v>
       </c>
       <c r="J101">
-        <v>9.17</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="102" spans="7:10">
@@ -4317,10 +4053,10 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.001547112976014614</v>
+        <v>0.001631225070357323</v>
       </c>
       <c r="J102">
-        <v>88.52</v>
+        <v>88.04000000000001</v>
       </c>
     </row>
     <row r="103" spans="7:10">
@@ -4331,10 +4067,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.04546366906166076</v>
+        <v>0.03540513596534729</v>
       </c>
       <c r="J103">
-        <v>9.220000000000001</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="104" spans="7:10">
@@ -4345,262 +4081,10 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.001548429749906063</v>
+        <v>0.001630657410621643</v>
       </c>
       <c r="J104">
-        <v>88.52</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>52</v>
-      </c>
-      <c r="I105">
-        <v>0.04570102405548096</v>
-      </c>
-      <c r="J105">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>52</v>
-      </c>
-      <c r="I106">
-        <v>0.001549541100859642</v>
-      </c>
-      <c r="J106">
-        <v>88.55</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>53</v>
-      </c>
-      <c r="I107">
-        <v>0.04589539051055908</v>
-      </c>
-      <c r="J107">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>53</v>
-      </c>
-      <c r="I108">
-        <v>0.001549787685275078</v>
-      </c>
-      <c r="J108">
-        <v>88.54000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10">
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>54</v>
-      </c>
-      <c r="I109">
-        <v>0.0458251528263092</v>
-      </c>
-      <c r="J109">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10">
-      <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110">
-        <v>54</v>
-      </c>
-      <c r="I110">
-        <v>0.001549504534900189</v>
-      </c>
-      <c r="J110">
-        <v>88.54000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="7:10">
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>55</v>
-      </c>
-      <c r="I111">
-        <v>0.0459210382938385</v>
-      </c>
-      <c r="J111">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="112" spans="7:10">
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
-        <v>55</v>
-      </c>
-      <c r="I112">
-        <v>0.001549260079860687</v>
-      </c>
-      <c r="J112">
-        <v>88.55</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10">
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>56</v>
-      </c>
-      <c r="I113">
-        <v>0.04542867865562439</v>
-      </c>
-      <c r="J113">
-        <v>9.19</v>
-      </c>
-    </row>
-    <row r="114" spans="7:10">
-      <c r="G114">
-        <v>2</v>
-      </c>
-      <c r="H114">
-        <v>56</v>
-      </c>
-      <c r="I114">
-        <v>0.001548846754431725</v>
-      </c>
-      <c r="J114">
-        <v>88.52</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10">
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>57</v>
-      </c>
-      <c r="I115">
-        <v>0.04535628027915955</v>
-      </c>
-      <c r="J115">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10">
-      <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116">
-        <v>57</v>
-      </c>
-      <c r="I116">
-        <v>0.001548393483459949</v>
-      </c>
-      <c r="J116">
-        <v>88.53</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10">
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>58</v>
-      </c>
-      <c r="I117">
-        <v>0.04537547869682312</v>
-      </c>
-      <c r="J117">
-        <v>9.210000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10">
-      <c r="G118">
-        <v>2</v>
-      </c>
-      <c r="H118">
-        <v>58</v>
-      </c>
-      <c r="I118">
-        <v>0.001548310273885727</v>
-      </c>
-      <c r="J118">
-        <v>88.53</v>
-      </c>
-    </row>
-    <row r="119" spans="7:10">
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>59</v>
-      </c>
-      <c r="I119">
-        <v>0.04533835186958313</v>
-      </c>
-      <c r="J119">
-        <v>9.210000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10">
-      <c r="G120">
-        <v>2</v>
-      </c>
-      <c r="H120">
-        <v>59</v>
-      </c>
-      <c r="I120">
-        <v>0.001548192837834358</v>
-      </c>
-      <c r="J120">
-        <v>88.53</v>
-      </c>
-    </row>
-    <row r="121" spans="7:10">
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>60</v>
-      </c>
-      <c r="I121">
-        <v>0.04533574090003967</v>
-      </c>
-      <c r="J121">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10">
-      <c r="G122">
-        <v>2</v>
-      </c>
-      <c r="H122">
-        <v>60</v>
-      </c>
-      <c r="I122">
-        <v>0.001548035781085491</v>
-      </c>
-      <c r="J122">
-        <v>88.54000000000001</v>
+        <v>88.06</v>
       </c>
     </row>
   </sheetData>
